--- a/TC_input_003.xlsx
+++ b/TC_input_003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software_testing_Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375E2337-5440-4B68-BECF-84FFAEE4F7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6EB932-0535-4050-9618-C1D0F9E11022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BD3C79ED-F014-4F24-A1EB-51B084F16DD7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -45,13 +45,22 @@
     <t>Expected values</t>
   </si>
   <si>
-    <t>TC_cura_bookappoin_003</t>
-  </si>
-  <si>
-    <t>book appointment</t>
-  </si>
-  <si>
     <t>appointment booked</t>
+  </si>
+  <si>
+    <t>TC_cura_validateappointment_003</t>
+  </si>
+  <si>
+    <t>Valid data for appointment booking:</t>
+  </si>
+  <si>
+    <t>Valid date</t>
+  </si>
+  <si>
+    <t>Select a doctor</t>
+  </si>
+  <si>
+    <t>Other relevant details as needed</t>
   </si>
 </sst>
 </file>
@@ -95,9 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9BE303-9BC8-4E66-9C7A-9F0BAE48C1A6}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,13 +450,28 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
